--- a/results/I3_N5_M2_T45_C100_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2377.445140676945</v>
+        <v>837.2557288806671</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9879999160766602</v>
+        <v>1.18500018119812</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.36969041613796</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.28420601438937</v>
+        <v>7.445908584740821</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.609656274901689</v>
+        <v>4.741951075243185</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2360.750000000295</v>
+        <v>816</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>36.23964284834953</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>31.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31.60181147454999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.75054662682655</v>
+        <v>32.48909622152298</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.27973517692068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,155 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>7</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>7</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
-      </c>
-      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000103</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1444,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -1455,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000003</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1466,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000119</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1477,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000105</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -1488,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0449999999997</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1499,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>45.22499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1510,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>46.65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1521,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>51.52499999999971</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1532,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>49.26499999999971</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>132.1149999999991</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1554,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.7649999999992</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1565,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>121.559999999998</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1576,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>134.4949999999988</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1587,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>132.0099999999979</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1598,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.8600000000752</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1609,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.3400000000129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1620,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.0550000000003</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1631,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.510000000013</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1642,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000747</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1653,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>233.8400000000002</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1664,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>229.8849999999992</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1675,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>219.8249999999985</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1686,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>231.4399999999985</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1697,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>235.5749999999992</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1708,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>202.8599999999462</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1719,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>203.3399999999489</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1730,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>217.0549999999436</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1741,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>207.5099999999472</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1752,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>199.044999999947</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1763,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>233.8400000000775</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1774,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>229.8850000000912</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -1785,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>219.8250000000808</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1796,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>231.4400000000833</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -1807,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>235.5750000000889</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1854,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>102.8599999999462</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1865,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>103.3399999999472</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1876,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>117.0549999999419</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1887,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>107.5099999999472</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1898,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>99.04499999994528</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1909,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>133.8400000000775</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1920,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8850000000903</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1931,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>119.8250000000799</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1942,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>131.4400000000833</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -1953,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.5750000000889</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2371,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2382,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2393,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2404,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2465,61 +2270,6 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
